--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3437.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3437.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180270991367351</v>
+        <v>1.423632025718689</v>
       </c>
       <c r="B1">
-        <v>2.713335439363715</v>
+        <v>3.180205821990967</v>
       </c>
       <c r="C1">
-        <v>3.878704888048912</v>
+        <v>4.705495834350586</v>
       </c>
       <c r="D1">
-        <v>4.029293606927918</v>
+        <v>1.931515216827393</v>
       </c>
       <c r="E1">
-        <v>1.218482430334263</v>
+        <v>1.173729419708252</v>
       </c>
     </row>
   </sheetData>
